--- a/Code/Results/Cases/Case_6_35/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_35/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.495972879074884</v>
+        <v>2.479542176748112</v>
       </c>
       <c r="C2">
-        <v>0.6048423759720549</v>
+        <v>0.5965930520935387</v>
       </c>
       <c r="D2">
-        <v>0.0284924966361082</v>
+        <v>0.04311690701489113</v>
       </c>
       <c r="E2">
-        <v>0.1976021915827531</v>
+        <v>0.1967928356842137</v>
       </c>
       <c r="F2">
-        <v>2.071884076933884</v>
+        <v>0.4816401892242865</v>
       </c>
       <c r="G2">
-        <v>0.000777407352725826</v>
+        <v>0.0007800506160781202</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.972871650375879</v>
+        <v>0.9686349301324952</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.656260727173191</v>
+        <v>1.310329790599837</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.152067527245947</v>
+        <v>2.158281802062788</v>
       </c>
       <c r="C3">
-        <v>0.5246115219640046</v>
+        <v>0.5279387110420544</v>
       </c>
       <c r="D3">
-        <v>0.02886629522702933</v>
+        <v>0.03864381683560936</v>
       </c>
       <c r="E3">
-        <v>0.1716392597427543</v>
+        <v>0.1719972415108586</v>
       </c>
       <c r="F3">
-        <v>1.841740886951229</v>
+        <v>0.4407969280248381</v>
       </c>
       <c r="G3">
-        <v>0.000785879238549879</v>
+        <v>0.0007847524405064478</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.8371604595796569</v>
+        <v>0.8386809295621163</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.478483365550346</v>
+        <v>1.224646528172684</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.943742095537175</v>
+        <v>1.961427101248177</v>
       </c>
       <c r="C4">
-        <v>0.4758996022912925</v>
+        <v>0.4858122416594881</v>
       </c>
       <c r="D4">
-        <v>0.0291652199731729</v>
+        <v>0.03589790986656993</v>
       </c>
       <c r="E4">
-        <v>0.1561745693767236</v>
+        <v>0.1573105314415741</v>
       </c>
       <c r="F4">
-        <v>1.705074532919937</v>
+        <v>0.4171622227967831</v>
       </c>
       <c r="G4">
-        <v>0.0007912066577447989</v>
+        <v>0.0007877273117862924</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.7553181845996164</v>
+        <v>0.7594768759424682</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.373149053772991</v>
+        <v>1.176836790746933</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.859445243048157</v>
+        <v>1.881271526957335</v>
       </c>
       <c r="C5">
-        <v>0.4561600574500346</v>
+        <v>0.4686456521566811</v>
       </c>
       <c r="D5">
-        <v>0.0293028098354533</v>
+        <v>0.03477872158889284</v>
       </c>
       <c r="E5">
-        <v>0.1499768424465984</v>
+        <v>0.1514470252911835</v>
       </c>
       <c r="F5">
-        <v>1.65041770564676</v>
+        <v>0.4078674755204261</v>
       </c>
       <c r="G5">
-        <v>0.0007934110925155748</v>
+        <v>0.0007889622739025715</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7222842592173535</v>
+        <v>0.7273233837491873</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.331078292766662</v>
+        <v>1.158477396443686</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.845480732117636</v>
+        <v>1.867964624639313</v>
       </c>
       <c r="C6">
-        <v>0.4528882715385976</v>
+        <v>0.4657949861008888</v>
       </c>
       <c r="D6">
-        <v>0.0293265635254194</v>
+        <v>0.03459285882104979</v>
       </c>
       <c r="E6">
-        <v>0.1489535831766844</v>
+        <v>0.1504803435946656</v>
       </c>
       <c r="F6">
-        <v>1.641400912358975</v>
+        <v>0.4063436778118614</v>
       </c>
       <c r="G6">
-        <v>0.0007937792105035783</v>
+        <v>0.0007891687240758821</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7168166375778142</v>
+        <v>0.7219910357469246</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.324141087946572</v>
+        <v>1.155494335979625</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.942602964193981</v>
+        <v>1.960345880969328</v>
       </c>
       <c r="C7">
-        <v>0.4756329729160029</v>
+        <v>0.4855807342703997</v>
       </c>
       <c r="D7">
-        <v>0.02916701377583308</v>
+        <v>0.03588281739531141</v>
       </c>
       <c r="E7">
-        <v>0.1560905820751231</v>
+        <v>0.1572309799843836</v>
       </c>
       <c r="F7">
-        <v>1.704333383382092</v>
+        <v>0.4170355414461397</v>
       </c>
       <c r="G7">
-        <v>0.0007912362496462919</v>
+        <v>0.0007877438743203458</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7548714622982047</v>
+        <v>0.7590427774459272</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.372578350490258</v>
+        <v>1.176584747584656</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.376733348393884</v>
+        <v>2.368665682194489</v>
       </c>
       <c r="C8">
-        <v>0.5770472437876037</v>
+        <v>0.5729111308889969</v>
       </c>
       <c r="D8">
-        <v>0.0286059094987472</v>
+        <v>0.04157423668338822</v>
       </c>
       <c r="E8">
-        <v>0.188541372036596</v>
+        <v>0.1881230625413508</v>
       </c>
       <c r="F8">
-        <v>1.99148417497635</v>
+        <v>0.4672415583277001</v>
       </c>
       <c r="G8">
-        <v>0.0007803035607973925</v>
+        <v>0.0007816539061676356</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.9257348504059379</v>
+        <v>0.9236890185640121</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.594102294155888</v>
+        <v>1.279738066272785</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.256391133191926</v>
+        <v>3.174371444920155</v>
       </c>
       <c r="C9">
-        <v>0.7816826648563051</v>
+        <v>0.7447197301738697</v>
       </c>
       <c r="D9">
-        <v>0.02814241447385868</v>
+        <v>0.05275820811017695</v>
       </c>
       <c r="E9">
-        <v>0.2567520886422869</v>
+        <v>0.2536466480386821</v>
       </c>
       <c r="F9">
-        <v>2.598053757011115</v>
+        <v>0.5784192468172265</v>
       </c>
       <c r="G9">
-        <v>0.0007597673694160557</v>
+        <v>0.0007703817649448358</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.275420861325088</v>
+        <v>1.252465228985187</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.064237325499292</v>
+        <v>1.524148143433109</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.92923791820283</v>
+        <v>3.772162567319526</v>
       </c>
       <c r="C10">
-        <v>0.9377765925370909</v>
+        <v>0.8718070125367774</v>
       </c>
       <c r="D10">
-        <v>0.02832935404875414</v>
+        <v>0.06101852461515733</v>
       </c>
       <c r="E10">
-        <v>0.3109213900819086</v>
+        <v>0.3058319589690015</v>
       </c>
       <c r="F10">
-        <v>3.08068485404911</v>
+        <v>0.6697682029141276</v>
       </c>
       <c r="G10">
-        <v>0.0007450813734769679</v>
+        <v>0.0007624675564232591</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.545776428809788</v>
+        <v>1.499510573883811</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.439974462104772</v>
+        <v>1.735463428787853</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.243548196131144</v>
+        <v>4.046070613233383</v>
       </c>
       <c r="C11">
-        <v>1.010629853640182</v>
+        <v>0.9299386952976079</v>
       </c>
       <c r="D11">
-        <v>0.02856682561582957</v>
+        <v>0.06479324920951512</v>
       </c>
       <c r="E11">
-        <v>0.3367819509333927</v>
+        <v>0.3307072206753716</v>
       </c>
       <c r="F11">
-        <v>3.311030658694619</v>
+        <v>0.7138894887817457</v>
       </c>
       <c r="G11">
-        <v>0.0007384488679939845</v>
+        <v>0.0007589370109541714</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.672884884728731</v>
+        <v>1.613558708481179</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.619740063523551</v>
+        <v>1.839970439065524</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.363992396458798</v>
+        <v>4.150138058462574</v>
       </c>
       <c r="C12">
-        <v>1.038541496465399</v>
+        <v>0.9520092885211398</v>
       </c>
       <c r="D12">
-        <v>0.02868251764507335</v>
+        <v>0.06622577711996769</v>
       </c>
       <c r="E12">
-        <v>0.3467833933858131</v>
+        <v>0.3403140779537637</v>
       </c>
       <c r="F12">
-        <v>3.400079051580434</v>
+        <v>0.7310086721688123</v>
       </c>
       <c r="G12">
-        <v>0.0007359404703677352</v>
+        <v>0.0007576092075476806</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.721728453757734</v>
+        <v>1.65702824653583</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.689304715656291</v>
+        <v>1.880885344043065</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.337985166929286</v>
+        <v>4.127708918850828</v>
       </c>
       <c r="C13">
-        <v>1.032514800531544</v>
+        <v>0.9472532436856227</v>
       </c>
       <c r="D13">
-        <v>0.02865638677689475</v>
+        <v>0.06591710634317849</v>
       </c>
       <c r="E13">
-        <v>0.3446195368416696</v>
+        <v>0.3382363407973443</v>
       </c>
       <c r="F13">
-        <v>3.380815154744084</v>
+        <v>0.7273027360857327</v>
       </c>
       <c r="G13">
-        <v>0.00073648062255139</v>
+        <v>0.0007578947822038062</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.711175454982737</v>
+        <v>1.647653042024217</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.674252534045394</v>
+        <v>1.87201168258963</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.253427225498456</v>
+        <v>4.054625031281148</v>
       </c>
       <c r="C14">
-        <v>1.012919307096922</v>
+        <v>0.9317532362158261</v>
       </c>
       <c r="D14">
-        <v>0.02857580282274697</v>
+        <v>0.06491103749287674</v>
       </c>
       <c r="E14">
-        <v>0.337600384575282</v>
+        <v>0.3314936869576215</v>
       </c>
       <c r="F14">
-        <v>3.318318532807979</v>
+        <v>0.7152893925850634</v>
       </c>
       <c r="G14">
-        <v>0.000738242460116832</v>
+        <v>0.0007588275938993057</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.676888299390455</v>
+        <v>1.617129064260013</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.625431922070518</v>
+        <v>1.843308849391263</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.201825881419325</v>
+        <v>4.009905805224548</v>
       </c>
       <c r="C15">
-        <v>1.00096054305854</v>
+        <v>0.9222668683255222</v>
       </c>
       <c r="D15">
-        <v>0.02852992402118559</v>
+        <v>0.06429521887337586</v>
       </c>
       <c r="E15">
-        <v>0.3333291992055507</v>
+        <v>0.3273887358693059</v>
       </c>
       <c r="F15">
-        <v>3.28028342860631</v>
+        <v>0.7079857736970041</v>
       </c>
       <c r="G15">
-        <v>0.0007393219310801719</v>
+        <v>0.0007594001305821337</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.655982734813051</v>
+        <v>1.598470299279541</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.595729195743957</v>
+        <v>1.825906324211275</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.908882175446593</v>
+        <v>3.754306769623327</v>
       </c>
       <c r="C16">
-        <v>0.9330573782624185</v>
+        <v>0.8680153487705411</v>
       </c>
       <c r="D16">
-        <v>0.02831721610091975</v>
+        <v>0.06077223630414608</v>
       </c>
       <c r="E16">
-        <v>0.309258598923563</v>
+        <v>0.3042311379211711</v>
       </c>
       <c r="F16">
-        <v>3.065870546716184</v>
+        <v>0.6669399503029325</v>
       </c>
       <c r="G16">
-        <v>0.0007455154857666053</v>
+        <v>0.0007626996142194248</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.537562192263536</v>
+        <v>1.492094316592301</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.428422332701501</v>
+        <v>1.728813558280336</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.731437188906909</v>
+        <v>3.598051317013528</v>
       </c>
       <c r="C17">
-        <v>0.8919123907262474</v>
+        <v>0.8348233547657742</v>
       </c>
       <c r="D17">
-        <v>0.02822830509535734</v>
+        <v>0.05861582386378217</v>
       </c>
       <c r="E17">
-        <v>0.2948263425369717</v>
+        <v>0.290331806428739</v>
       </c>
       <c r="F17">
-        <v>2.937279362328837</v>
+        <v>0.6424459302659074</v>
       </c>
       <c r="G17">
-        <v>0.0007493248830978683</v>
+        <v>0.0007647409806906894</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.466049056766138</v>
+        <v>1.427291699352836</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.328195958705649</v>
+        <v>1.671488910187207</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.630133889584329</v>
+        <v>3.508358741345717</v>
       </c>
       <c r="C18">
-        <v>0.868416598826343</v>
+        <v>0.8157614743366537</v>
       </c>
       <c r="D18">
-        <v>0.02819124801319361</v>
+        <v>0.05737707457650743</v>
       </c>
       <c r="E18">
-        <v>0.2866377194409253</v>
+        <v>0.2824426329386398</v>
       </c>
       <c r="F18">
-        <v>2.864314889420456</v>
+        <v>0.628596408915584</v>
       </c>
       <c r="G18">
-        <v>0.00075152074065292</v>
+        <v>0.0007659217350748539</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.425296606731038</v>
+        <v>1.390172984070304</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.271365618877155</v>
+        <v>1.639297120973055</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.595957878160448</v>
+        <v>3.478019764930366</v>
       </c>
       <c r="C19">
-        <v>0.8604888414562311</v>
+        <v>0.8093121447456326</v>
       </c>
       <c r="D19">
-        <v>0.02818101295388686</v>
+        <v>0.05695790447595783</v>
       </c>
       <c r="E19">
-        <v>0.2838835684589185</v>
+        <v>0.2797889033538752</v>
       </c>
       <c r="F19">
-        <v>2.839774168112712</v>
+        <v>0.6239469801885065</v>
       </c>
       <c r="G19">
-        <v>0.0007522651489930164</v>
+        <v>0.0007663226798778748</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.411560496473641</v>
+        <v>1.377630454325683</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.252258013788108</v>
+        <v>1.628527537826272</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.750246406984218</v>
+        <v>3.614665774630851</v>
       </c>
       <c r="C20">
-        <v>0.8962743855896633</v>
+        <v>0.8383535893412386</v>
       </c>
       <c r="D20">
-        <v>0.0282362865774779</v>
+        <v>0.05884521137074472</v>
       </c>
       <c r="E20">
-        <v>0.296350819674899</v>
+        <v>0.291800345616366</v>
       </c>
       <c r="F20">
-        <v>2.950863022369504</v>
+        <v>0.6450283513498505</v>
       </c>
       <c r="G20">
-        <v>0.0007489188954406228</v>
+        <v>0.0007645229952633828</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.473621626796231</v>
+        <v>1.434173812181612</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.33877915712695</v>
+        <v>1.677509564118878</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.278223278319444</v>
+        <v>4.076081677453374</v>
       </c>
       <c r="C21">
-        <v>1.018665682986409</v>
+        <v>0.9363043093321721</v>
       </c>
       <c r="D21">
-        <v>0.02859873896603915</v>
+        <v>0.06520645389323221</v>
       </c>
       <c r="E21">
-        <v>0.3396561256144039</v>
+        <v>0.3334688870152576</v>
       </c>
       <c r="F21">
-        <v>3.336623525427854</v>
+        <v>0.7188064803778076</v>
       </c>
       <c r="G21">
-        <v>0.0007377249119165094</v>
+        <v>0.0007585533639375551</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.686938961451858</v>
+        <v>1.62608668460048</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.639729326222707</v>
+        <v>1.851702048239986</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.631711519938449</v>
+        <v>4.379683765020729</v>
       </c>
       <c r="C22">
-        <v>1.100576254178975</v>
+        <v>1.000661435557873</v>
       </c>
       <c r="D22">
-        <v>0.02898811129234957</v>
+        <v>0.06938245325667936</v>
       </c>
       <c r="E22">
-        <v>0.3691941391087639</v>
+        <v>0.3618053520295916</v>
       </c>
       <c r="F22">
-        <v>3.599512727740091</v>
+        <v>0.769445268180263</v>
       </c>
       <c r="G22">
-        <v>0.0007304254200634471</v>
+        <v>0.0007547046603990056</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.830563106106723</v>
+        <v>1.753179248151085</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.845237604218326</v>
+        <v>1.973431693637792</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.442188791808917</v>
+        <v>4.217437212744869</v>
       </c>
       <c r="C23">
-        <v>1.056661525970128</v>
+        <v>0.9662775514636905</v>
       </c>
       <c r="D23">
-        <v>0.02876488855629589</v>
+        <v>0.06715170533446013</v>
       </c>
       <c r="E23">
-        <v>0.3533036209176714</v>
+        <v>0.3465721343257329</v>
       </c>
       <c r="F23">
-        <v>3.458118212528376</v>
+        <v>0.7421818911373066</v>
       </c>
       <c r="G23">
-        <v>0.0007343211819059725</v>
+        <v>0.000756754266311721</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.753479282041283</v>
+        <v>1.685179947721835</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.734665226378823</v>
+        <v>1.907692742201732</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.741740558721972</v>
+        <v>3.607153944440881</v>
       </c>
       <c r="C24">
-        <v>0.8943018367155275</v>
+        <v>0.8367575068595556</v>
       </c>
       <c r="D24">
-        <v>0.0282326346405064</v>
+        <v>0.05874150221053753</v>
       </c>
       <c r="E24">
-        <v>0.2956612675156265</v>
+        <v>0.2911361039283449</v>
       </c>
       <c r="F24">
-        <v>2.944718865859045</v>
+        <v>0.6438601180093144</v>
       </c>
       <c r="G24">
-        <v>0.0007491024241633063</v>
+        <v>0.0007646215241510464</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.470196950828495</v>
+        <v>1.431061984864726</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.333992045091364</v>
+        <v>1.674785254033679</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.014499145589241</v>
+        <v>2.95559801854813</v>
       </c>
       <c r="C25">
-        <v>0.7254934984353554</v>
+        <v>0.6981306330009147</v>
       </c>
       <c r="D25">
-        <v>0.02818649158581366</v>
+        <v>0.04972732689316928</v>
       </c>
       <c r="E25">
-        <v>0.2376889984814738</v>
+        <v>0.2352907334303396</v>
       </c>
       <c r="F25">
-        <v>2.42830332290491</v>
+        <v>0.5467924254158447</v>
       </c>
       <c r="G25">
-        <v>0.0007652405505317891</v>
+        <v>0.0007733634920481167</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.178824070140557</v>
+        <v>1.162704817380337</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.932410478334958</v>
+        <v>1.45292182745132</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_35/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_35/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.479542176748112</v>
+        <v>2.418682082043119</v>
       </c>
       <c r="C2">
-        <v>0.5965930520935387</v>
+        <v>0.7252426225222735</v>
       </c>
       <c r="D2">
-        <v>0.04311690701489113</v>
+        <v>0.07156359665167855</v>
       </c>
       <c r="E2">
-        <v>0.1967928356842137</v>
+        <v>0.1922078022329003</v>
       </c>
       <c r="F2">
-        <v>0.4816401892242865</v>
+        <v>0.2931872924939256</v>
       </c>
       <c r="G2">
-        <v>0.0007800506160781202</v>
+        <v>0.1892333293600288</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.007004313134228113</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.1734829150065309</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.1167472594533159</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.9686349301324952</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.310329790599837</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.9753208905261701</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0.7150707047780855</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.158281802062788</v>
+        <v>2.113324221945845</v>
       </c>
       <c r="C3">
-        <v>0.5279387110420544</v>
+        <v>0.6466481658928842</v>
       </c>
       <c r="D3">
-        <v>0.03864381683560936</v>
+        <v>0.06288805615708526</v>
       </c>
       <c r="E3">
-        <v>0.1719972415108586</v>
+        <v>0.1684804915800626</v>
       </c>
       <c r="F3">
-        <v>0.4407969280248381</v>
+        <v>0.2722121973626628</v>
       </c>
       <c r="G3">
-        <v>0.0007847524405064478</v>
+        <v>0.1765498861485284</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.005000862762146507</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.1729495633720219</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.1256040553340529</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.8386809295621163</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.224646528172684</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.8468950899091183</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0.6867346962112464</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.961427101248177</v>
+        <v>1.925502454049109</v>
       </c>
       <c r="C4">
-        <v>0.4858122416594881</v>
+        <v>0.5987074046284988</v>
       </c>
       <c r="D4">
-        <v>0.03589790986656993</v>
+        <v>0.05757592082744623</v>
       </c>
       <c r="E4">
-        <v>0.1573105314415741</v>
+        <v>0.1544427949951341</v>
       </c>
       <c r="F4">
-        <v>0.4171622227967831</v>
+        <v>0.2599030377029194</v>
       </c>
       <c r="G4">
-        <v>0.0007877273117862924</v>
+        <v>0.1692623658282386</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.003938947720582675</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.172964864826433</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.1314446532530882</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.7594768759424682</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.176836790746933</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.7683783029558882</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0.6711057958911226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.881271526957335</v>
+        <v>1.848739330651597</v>
       </c>
       <c r="C5">
-        <v>0.4686456521566811</v>
+        <v>0.5802534855357067</v>
       </c>
       <c r="D5">
-        <v>0.03477872158889284</v>
+        <v>0.05548138946105041</v>
       </c>
       <c r="E5">
-        <v>0.1514470252911835</v>
+        <v>0.1487795215472971</v>
       </c>
       <c r="F5">
-        <v>0.4078674755204261</v>
+        <v>0.2546607748087695</v>
       </c>
       <c r="G5">
-        <v>0.0007889622739025715</v>
+        <v>0.1660704999641851</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.003599501039542652</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.1728737684729325</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.1337485797454736</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7273233837491873</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.158477396443686</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.7366374230595056</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0.6640598086065665</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.867964624639313</v>
+        <v>1.835829152851232</v>
       </c>
       <c r="C6">
-        <v>0.4657949861008888</v>
+        <v>0.5784333263875681</v>
       </c>
       <c r="D6">
-        <v>0.03459285882104979</v>
+        <v>0.05521599314543835</v>
       </c>
       <c r="E6">
-        <v>0.1504803435946656</v>
+        <v>0.1477679534409262</v>
       </c>
       <c r="F6">
-        <v>0.4063436778118614</v>
+        <v>0.2533577172499051</v>
       </c>
       <c r="G6">
-        <v>0.0007891687240758821</v>
+        <v>0.1651327925317432</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.00361916348393887</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.1726438465410283</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.1339262056050199</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7219910357469246</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.155494335979625</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.731598478193753</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0.6615754090519204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.960345880969328</v>
+        <v>1.924036598455586</v>
       </c>
       <c r="C7">
-        <v>0.4855807342703997</v>
+        <v>0.6018552578286176</v>
       </c>
       <c r="D7">
-        <v>0.03588281739531141</v>
+        <v>0.05777288054930096</v>
       </c>
       <c r="E7">
-        <v>0.1572309799843836</v>
+        <v>0.1541526043047483</v>
       </c>
       <c r="F7">
-        <v>0.4170355414461397</v>
+        <v>0.2586282885605726</v>
       </c>
       <c r="G7">
-        <v>0.0007877438743203458</v>
+        <v>0.1680860314355002</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.004121089916810483</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.1723640342669981</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.1309020681665496</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7590427774459272</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.176584747584656</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.7685734066735819</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0.667352211237187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.368665682194489</v>
+        <v>2.312883261954653</v>
       </c>
       <c r="C8">
-        <v>0.5729111308889969</v>
+        <v>0.7026209883177614</v>
       </c>
       <c r="D8">
-        <v>0.04157423668338822</v>
+        <v>0.06886998111854581</v>
       </c>
       <c r="E8">
-        <v>0.1881230625413508</v>
+        <v>0.1836268703931694</v>
       </c>
       <c r="F8">
-        <v>0.4672415583277001</v>
+        <v>0.2842378152703304</v>
       </c>
       <c r="G8">
-        <v>0.0007816539061676356</v>
+        <v>0.183251984491605</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.006497987226699919</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.1724366092043965</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.1189704570823125</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.9236890185640121</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.279738066272785</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.9317899342378198</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0.7000868622820207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.174371444920155</v>
+        <v>3.074199826961205</v>
       </c>
       <c r="C9">
-        <v>0.7447197301738697</v>
+        <v>0.8969624580311972</v>
       </c>
       <c r="D9">
-        <v>0.05275820811017695</v>
+        <v>0.09036756371954624</v>
       </c>
       <c r="E9">
-        <v>0.2536466480386821</v>
+        <v>0.2466193051695242</v>
       </c>
       <c r="F9">
-        <v>0.5784192468172265</v>
+        <v>0.3415729772992719</v>
       </c>
       <c r="G9">
-        <v>0.0007703817649448358</v>
+        <v>0.2194031364982081</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.01237375700999976</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.1765443886595151</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.09996712507446937</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.252465228985187</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.524148143433109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>1.254167321593656</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0.7861066322927002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.772162567319526</v>
+        <v>3.633135489785218</v>
       </c>
       <c r="C10">
-        <v>0.8718070125367774</v>
+        <v>1.043882743452741</v>
       </c>
       <c r="D10">
-        <v>0.06101852461515733</v>
+        <v>0.1064085141163105</v>
       </c>
       <c r="E10">
-        <v>0.3058319589690015</v>
+        <v>0.2966235633478362</v>
       </c>
       <c r="F10">
-        <v>0.6697682029141276</v>
+        <v>0.3867723529985696</v>
       </c>
       <c r="G10">
-        <v>0.0007624675564232591</v>
+        <v>0.2486867799016323</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.01792336473931755</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.1813045889466878</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.08810132102775015</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.499510573883811</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.735463428787853</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>1.494576935985506</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0.8586870684400765</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.046070613233383</v>
+        <v>3.886905337347912</v>
       </c>
       <c r="C11">
-        <v>0.9299386952976079</v>
+        <v>1.117223763509145</v>
       </c>
       <c r="D11">
-        <v>0.06479324920951512</v>
+        <v>0.1141286240545156</v>
       </c>
       <c r="E11">
-        <v>0.3307072206753716</v>
+        <v>0.3200729319707349</v>
       </c>
       <c r="F11">
-        <v>0.7138894887817457</v>
+        <v>0.4063206639363059</v>
       </c>
       <c r="G11">
-        <v>0.0007589370109541714</v>
+        <v>0.2610252320328215</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.02105275265113615</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.1830184318706216</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.08243201600377859</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.613558708481179</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.839970439065524</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>1.6059692789228</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0.8886670002133883</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.150138058462574</v>
+        <v>3.983435201570671</v>
       </c>
       <c r="C12">
-        <v>0.9520092885211398</v>
+        <v>1.142018753058039</v>
       </c>
       <c r="D12">
-        <v>0.06622577711996769</v>
+        <v>0.1168553565972275</v>
       </c>
       <c r="E12">
-        <v>0.3403140779537637</v>
+        <v>0.3293073186515869</v>
       </c>
       <c r="F12">
-        <v>0.7310086721688123</v>
+        <v>0.4149185901559491</v>
       </c>
       <c r="G12">
-        <v>0.0007576092075476806</v>
+        <v>0.2668138188645344</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.02212783257288997</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.1842559039870935</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.08083443621436004</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.65702824653583</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.880885344043065</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>1.647764515657187</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0.9036171977995764</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.127708918850828</v>
+        <v>3.962719603235087</v>
       </c>
       <c r="C13">
-        <v>0.9472532436856227</v>
+        <v>1.136049399670156</v>
       </c>
       <c r="D13">
-        <v>0.06591710634317849</v>
+        <v>0.1162267604937597</v>
       </c>
       <c r="E13">
-        <v>0.3382363407973443</v>
+        <v>0.3273476880981292</v>
       </c>
       <c r="F13">
-        <v>0.7273027360857327</v>
+        <v>0.4132700053754306</v>
       </c>
       <c r="G13">
-        <v>0.0007578947822038062</v>
+        <v>0.2657576658912646</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.02185940549033294</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.1840881476006757</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.08126562648419622</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.647653042024217</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.87201168258963</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>1.638643963562558</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.9010081208491556</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.054625031281148</v>
+        <v>3.894878215848223</v>
       </c>
       <c r="C14">
-        <v>0.9317532362158261</v>
+        <v>1.118996374240453</v>
       </c>
       <c r="D14">
-        <v>0.06491103749287674</v>
+        <v>0.1143353933221221</v>
       </c>
       <c r="E14">
-        <v>0.3314936869576215</v>
+        <v>0.3208448670608988</v>
       </c>
       <c r="F14">
-        <v>0.7152893925850634</v>
+        <v>0.4071141464157151</v>
       </c>
       <c r="G14">
-        <v>0.0007588275938993057</v>
+        <v>0.2615822473527345</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.02112517496563981</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.183162121363516</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.08233753481779083</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.617129064260013</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.843308849391263</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>1.60935700748685</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.8901559346137162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.009905805224548</v>
+        <v>3.85318044203234</v>
       </c>
       <c r="C15">
-        <v>0.9222668683255222</v>
+        <v>1.109793638854256</v>
       </c>
       <c r="D15">
-        <v>0.06429521887337586</v>
+        <v>0.1132584897447089</v>
       </c>
       <c r="E15">
-        <v>0.3273887358693059</v>
+        <v>0.3168114846862267</v>
       </c>
       <c r="F15">
-        <v>0.7079857736970041</v>
+        <v>0.4029500842898344</v>
       </c>
       <c r="G15">
-        <v>0.0007594001305821337</v>
+        <v>0.2586555306995777</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.02075436840295009</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.182403710694615</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.08282625297011492</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.598470299279541</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.825906324211275</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>1.591659575561451</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.8823256099014429</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.754306769623327</v>
+        <v>3.615289668103628</v>
       </c>
       <c r="C16">
-        <v>0.8680153487705411</v>
+        <v>1.049407881112131</v>
       </c>
       <c r="D16">
-        <v>0.06077223630414608</v>
+        <v>0.1065830201995368</v>
       </c>
       <c r="E16">
-        <v>0.3042311379211711</v>
+        <v>0.2944981985864956</v>
       </c>
       <c r="F16">
-        <v>0.6669399503029325</v>
+        <v>0.3820269933030502</v>
       </c>
       <c r="G16">
-        <v>0.0007626996142194248</v>
+        <v>0.2446283578663113</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.01828197219619643</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.1794997336002737</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.08695120558441261</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.492094316592301</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.728813558280336</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>1.489164333394356</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.8462888660130687</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.598051317013528</v>
+        <v>3.469428817697008</v>
       </c>
       <c r="C17">
-        <v>0.8348233547657742</v>
+        <v>1.012493211746545</v>
       </c>
       <c r="D17">
-        <v>0.05861582386378217</v>
+        <v>0.1024951660183433</v>
       </c>
       <c r="E17">
-        <v>0.290331806428739</v>
+        <v>0.2810942969370984</v>
       </c>
       <c r="F17">
-        <v>0.6424459302659074</v>
+        <v>0.3694600728105613</v>
       </c>
       <c r="G17">
-        <v>0.0007647409806906894</v>
+        <v>0.2362665995851927</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.01685280093743469</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.1778586448235728</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.08964086098752233</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.427291699352836</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.671488910187207</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>1.426547732775063</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.8249894545667757</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.508358741345717</v>
+        <v>3.385937842157546</v>
       </c>
       <c r="C18">
-        <v>0.8157614743366537</v>
+        <v>0.988185884365123</v>
       </c>
       <c r="D18">
-        <v>0.05737707457650743</v>
+        <v>0.09994125116635644</v>
       </c>
       <c r="E18">
-        <v>0.2824426329386398</v>
+        <v>0.2736695746869273</v>
       </c>
       <c r="F18">
-        <v>0.628596408915584</v>
+        <v>0.3633803647270639</v>
       </c>
       <c r="G18">
-        <v>0.0007659217350748539</v>
+        <v>0.2325299637337679</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.01585439591728655</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.1774799023187299</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.09170650653932455</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.390172984070304</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.639297120973055</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>1.390062161601278</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.8161955522359108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.478019764930366</v>
+        <v>3.357377256509949</v>
       </c>
       <c r="C19">
-        <v>0.8093121447456326</v>
+        <v>0.9823688017093275</v>
       </c>
       <c r="D19">
-        <v>0.05695790447595783</v>
+        <v>0.0992351736906727</v>
       </c>
       <c r="E19">
-        <v>0.2797889033538752</v>
+        <v>0.2710281945851065</v>
       </c>
       <c r="F19">
-        <v>0.6239469801885065</v>
+        <v>0.3605243879353708</v>
       </c>
       <c r="G19">
-        <v>0.0007663226798778748</v>
+        <v>0.2305170487847121</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.0156776752337322</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.1769624057879966</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.09205862524607156</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.377630454325683</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.628527537826272</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>1.378154000664367</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0.8108176707713284</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.614665774630851</v>
+        <v>3.484983581971449</v>
       </c>
       <c r="C20">
-        <v>0.8383535893412386</v>
+        <v>1.016172886262837</v>
       </c>
       <c r="D20">
-        <v>0.05884521137074472</v>
+        <v>0.1029139396857772</v>
       </c>
       <c r="E20">
-        <v>0.291800345616366</v>
+        <v>0.2825254756250501</v>
       </c>
       <c r="F20">
-        <v>0.6450283513498505</v>
+        <v>0.3708706922285216</v>
       </c>
       <c r="G20">
-        <v>0.0007645229952633828</v>
+        <v>0.2372252716223215</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.01698524102770449</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.1780685597488443</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.08938476352816416</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.434173812181612</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.677509564118878</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>1.433160207903697</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0.8274759579246194</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.076081677453374</v>
+        <v>3.914374333288663</v>
       </c>
       <c r="C21">
-        <v>0.9363043093321721</v>
+        <v>1.127506096335338</v>
       </c>
       <c r="D21">
-        <v>0.06520645389323221</v>
+        <v>0.1151210436027554</v>
       </c>
       <c r="E21">
-        <v>0.3334688870152576</v>
+        <v>0.3225422544674643</v>
       </c>
       <c r="F21">
-        <v>0.7188064803778076</v>
+        <v>0.407740645847646</v>
       </c>
       <c r="G21">
-        <v>0.0007585533639375551</v>
+        <v>0.2617020115995246</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.02154631171654486</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.1828583131146573</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.08150992911830279</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.62608668460048</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.851702048239986</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>1.618579590432304</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0.8897918831168568</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.379683765020729</v>
+        <v>4.195890069054371</v>
       </c>
       <c r="C22">
-        <v>1.000661435557873</v>
+        <v>1.196286485686528</v>
       </c>
       <c r="D22">
-        <v>0.06938245325667936</v>
+        <v>0.1228335030098577</v>
       </c>
       <c r="E22">
-        <v>0.3618053520295916</v>
+        <v>0.3499711264282652</v>
       </c>
       <c r="F22">
-        <v>0.769445268180263</v>
+        <v>0.4342686472964772</v>
       </c>
       <c r="G22">
-        <v>0.0007547046603990056</v>
+        <v>0.279949936318971</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.02456457788470789</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.1872002773815495</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.07755679254811376</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.753179248151085</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.973431693637792</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1.73991992771505</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0.9378207059317845</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.217437212744869</v>
+        <v>4.046118997779502</v>
       </c>
       <c r="C23">
-        <v>0.9662775514636905</v>
+        <v>1.155307789589159</v>
       </c>
       <c r="D23">
-        <v>0.06715170533446013</v>
+        <v>0.118436890176838</v>
       </c>
       <c r="E23">
-        <v>0.3465721343257329</v>
+        <v>0.3354828726380177</v>
       </c>
       <c r="F23">
-        <v>0.7421818911373066</v>
+        <v>0.4214396433459839</v>
       </c>
       <c r="G23">
-        <v>0.000756754266311721</v>
+        <v>0.2714586538889989</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.02269242240364999</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.1855282245305858</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.08023055780110511</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.685179947721835</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.907692742201732</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>1.674309498466855</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0.9161842271604144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.607153944440881</v>
+        <v>3.47876208008239</v>
       </c>
       <c r="C24">
-        <v>0.8367575068595556</v>
+        <v>1.007909636668302</v>
       </c>
       <c r="D24">
-        <v>0.05874150221053753</v>
+        <v>0.1022903665024728</v>
       </c>
       <c r="E24">
-        <v>0.2911361039283449</v>
+        <v>0.2822727656114026</v>
       </c>
       <c r="F24">
-        <v>0.6438601180093144</v>
+        <v>0.3724659620609643</v>
       </c>
       <c r="G24">
-        <v>0.0007646215241510464</v>
+        <v>0.2388847911338985</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.01652783979320471</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.1790650654980723</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.0904815717164027</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.431061984864726</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.674785254033679</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>1.42898840999014</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0.8330740127379528</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.95559801854813</v>
+        <v>2.867570278309643</v>
       </c>
       <c r="C25">
-        <v>0.6981306330009147</v>
+        <v>0.8503364263471553</v>
       </c>
       <c r="D25">
-        <v>0.04972732689316928</v>
+        <v>0.08494929151154196</v>
       </c>
       <c r="E25">
-        <v>0.2352907334303396</v>
+        <v>0.2285902943495728</v>
       </c>
       <c r="F25">
-        <v>0.5467924254158447</v>
+        <v>0.3232921987987254</v>
       </c>
       <c r="G25">
-        <v>0.0007733634920481167</v>
+        <v>0.2070510358422979</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.01092761410454823</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.1740271892584033</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.1037311354744155</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.162704817380337</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.45292182745132</v>
+        <v>1.167616388139166</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0.7544458610191498</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_35/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_35/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.418682082043119</v>
+        <v>2.413669301074776</v>
       </c>
       <c r="C2">
-        <v>0.7252426225222735</v>
+        <v>0.7374267521327624</v>
       </c>
       <c r="D2">
-        <v>0.07156359665167855</v>
+        <v>0.07314623319026481</v>
       </c>
       <c r="E2">
-        <v>0.1922078022329003</v>
+        <v>0.1907547936876455</v>
       </c>
       <c r="F2">
-        <v>0.2931872924939256</v>
+        <v>0.2888801399482972</v>
       </c>
       <c r="G2">
-        <v>0.1892333293600288</v>
+        <v>0.1714671260590208</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.007004313134228113</v>
+        <v>0.006661881769351119</v>
       </c>
       <c r="J2">
-        <v>0.1734829150065309</v>
+        <v>0.2158995064499152</v>
       </c>
       <c r="K2">
-        <v>0.1167472594533159</v>
+        <v>0.1156013912092746</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.09070293981185706</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.01430533223198038</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.9753208905261701</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.7150707047780855</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.977595954639618</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.7053499434727826</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.113324221945845</v>
+        <v>2.110957316648125</v>
       </c>
       <c r="C3">
-        <v>0.6466481658928842</v>
+        <v>0.6501898487224764</v>
       </c>
       <c r="D3">
-        <v>0.06288805615708526</v>
+        <v>0.06388806146598824</v>
       </c>
       <c r="E3">
-        <v>0.1684804915800626</v>
+        <v>0.1675010078207109</v>
       </c>
       <c r="F3">
-        <v>0.2722121973626628</v>
+        <v>0.270129490314396</v>
       </c>
       <c r="G3">
-        <v>0.1765498861485284</v>
+        <v>0.1599445563837349</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.005000862762146507</v>
+        <v>0.004919915374040684</v>
       </c>
       <c r="J3">
-        <v>0.1729495633720219</v>
+        <v>0.2151224524395801</v>
       </c>
       <c r="K3">
-        <v>0.1256040553340529</v>
+        <v>0.1244848580847107</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.09639040101833807</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.01609591390434595</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.8468950899091183</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.6867346962112464</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.8482193721871667</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0.6829679407783544</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.925502454049109</v>
+        <v>1.924680283833624</v>
       </c>
       <c r="C4">
-        <v>0.5987074046284988</v>
+        <v>0.5971471309697165</v>
       </c>
       <c r="D4">
-        <v>0.05757592082744623</v>
+        <v>0.05823056778349667</v>
       </c>
       <c r="E4">
-        <v>0.1544427949951341</v>
+        <v>0.1537451328603723</v>
       </c>
       <c r="F4">
-        <v>0.2599030377029194</v>
+        <v>0.2590643640357371</v>
       </c>
       <c r="G4">
-        <v>0.1692623658282386</v>
+        <v>0.1533479826947328</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.003938947720582675</v>
+        <v>0.003990136351729401</v>
       </c>
       <c r="J4">
-        <v>0.172964864826433</v>
+        <v>0.2148013083090277</v>
       </c>
       <c r="K4">
-        <v>0.1314446532530882</v>
+        <v>0.1302685714849368</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1001572518924529</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.01767745817878419</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.7683783029558882</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.6711057958911226</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.7691128888227325</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0.6706072999650274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.848739330651597</v>
+        <v>1.848531582756692</v>
       </c>
       <c r="C5">
-        <v>0.5802534855357067</v>
+        <v>0.5766510340293394</v>
       </c>
       <c r="D5">
-        <v>0.05548138946105041</v>
+        <v>0.05599700114161266</v>
       </c>
       <c r="E5">
-        <v>0.1487795215472971</v>
+        <v>0.148196233560526</v>
       </c>
       <c r="F5">
-        <v>0.2546607748087695</v>
+        <v>0.2543094098388181</v>
       </c>
       <c r="G5">
-        <v>0.1660704999641851</v>
+        <v>0.150445778134717</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.003599501039542652</v>
+        <v>0.003710924700562224</v>
       </c>
       <c r="J5">
-        <v>0.1728737684729325</v>
+        <v>0.2145256968826814</v>
       </c>
       <c r="K5">
-        <v>0.1337485797454736</v>
+        <v>0.1325394121199626</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1016477018088082</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.01842711875010439</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.7366374230595056</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.6640598086065665</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.7371273841942738</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0.6648307007942691</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.835829152851232</v>
+        <v>1.835725537302466</v>
       </c>
       <c r="C6">
-        <v>0.5784333263875681</v>
+        <v>0.574477482358418</v>
       </c>
       <c r="D6">
-        <v>0.05521599314543835</v>
+        <v>0.05570697041098072</v>
       </c>
       <c r="E6">
-        <v>0.1477679534409262</v>
+        <v>0.1472055178738323</v>
       </c>
       <c r="F6">
-        <v>0.2533577172499051</v>
+        <v>0.2530975676738407</v>
       </c>
       <c r="G6">
-        <v>0.1651327925317432</v>
+        <v>0.1495733325520376</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.00361916348393887</v>
+        <v>0.003757526634339925</v>
       </c>
       <c r="J6">
-        <v>0.1726438465410283</v>
+        <v>0.2142594293721132</v>
       </c>
       <c r="K6">
-        <v>0.1339262056050199</v>
+        <v>0.1327201734318795</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1017619209482223</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.01854161529551768</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.731598478193753</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.6615754090519204</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.7320428214796593</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0.6625899677722913</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.924036598455586</v>
+        <v>1.923228377595109</v>
       </c>
       <c r="C7">
-        <v>0.6018552578286176</v>
+        <v>0.5997554024829697</v>
       </c>
       <c r="D7">
-        <v>0.05777288054930096</v>
+        <v>0.05855721718078399</v>
       </c>
       <c r="E7">
-        <v>0.1541526043047483</v>
+        <v>0.1534831791055495</v>
       </c>
       <c r="F7">
-        <v>0.2586282885605726</v>
+        <v>0.2571394308651591</v>
       </c>
       <c r="G7">
-        <v>0.1680860314355002</v>
+        <v>0.1543456198219317</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.004121089916810483</v>
+        <v>0.004213349457748983</v>
       </c>
       <c r="J7">
-        <v>0.1723640342669981</v>
+        <v>0.2109018184827818</v>
       </c>
       <c r="K7">
-        <v>0.1309020681665496</v>
+        <v>0.1295789772592517</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.09970040375376676</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.01760888111297687</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.7685734066735819</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.667352211237187</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.769200437659741</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0.6649087875001953</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.312883261954653</v>
+        <v>2.308806424541274</v>
       </c>
       <c r="C8">
-        <v>0.7026209883177614</v>
+        <v>0.710173036278519</v>
       </c>
       <c r="D8">
-        <v>0.06886998111854581</v>
+        <v>0.07070350807882164</v>
       </c>
       <c r="E8">
-        <v>0.1836268703931694</v>
+        <v>0.1824196214722278</v>
       </c>
       <c r="F8">
-        <v>0.2842378152703304</v>
+        <v>0.2784839553167657</v>
       </c>
       <c r="G8">
-        <v>0.183251984491605</v>
+        <v>0.1730732228450407</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.006497987226699919</v>
+        <v>0.006290803325931016</v>
       </c>
       <c r="J8">
-        <v>0.1724366092043965</v>
+        <v>0.2041434570176079</v>
       </c>
       <c r="K8">
-        <v>0.1189704570823125</v>
+        <v>0.1173475902046484</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.0918878644353498</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.01457700519058447</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.9317899342378198</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.7000868622820207</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.9334123617520191</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0.6858332611817417</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.074199826961205</v>
+        <v>3.062949471422428</v>
       </c>
       <c r="C9">
-        <v>0.8969624580311972</v>
+        <v>0.9268047955619352</v>
       </c>
       <c r="D9">
-        <v>0.09036756371954624</v>
+        <v>0.09386675371758457</v>
       </c>
       <c r="E9">
-        <v>0.2466193051695242</v>
+        <v>0.2441894702159502</v>
       </c>
       <c r="F9">
-        <v>0.3415729772992719</v>
+        <v>0.3288594387059334</v>
       </c>
       <c r="G9">
-        <v>0.2194031364982081</v>
+        <v>0.2081739582208542</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.01237375700999976</v>
+        <v>0.0112651550957299</v>
       </c>
       <c r="J9">
-        <v>0.1765443886595151</v>
+        <v>0.2048112980433245</v>
       </c>
       <c r="K9">
-        <v>0.09996712507446937</v>
+        <v>0.09769334088005266</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.07970591897097368</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.01282478345098603</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.254167321593656</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.7861066322927002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>1.257982945931801</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0.7526795385591072</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.633135489785218</v>
+        <v>3.615975659179298</v>
       </c>
       <c r="C10">
-        <v>1.043882743452741</v>
+        <v>1.088238907307982</v>
       </c>
       <c r="D10">
-        <v>0.1064085141163105</v>
+        <v>0.1120328635157648</v>
       </c>
       <c r="E10">
-        <v>0.2966235633478362</v>
+        <v>0.293370303932619</v>
       </c>
       <c r="F10">
-        <v>0.3867723529985696</v>
+        <v>0.3642197542120726</v>
       </c>
       <c r="G10">
-        <v>0.2486867799016323</v>
+        <v>0.2496071584030517</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.01792336473931755</v>
+        <v>0.01593256668260068</v>
       </c>
       <c r="J10">
-        <v>0.1813045889466878</v>
+        <v>0.1885537349014186</v>
       </c>
       <c r="K10">
-        <v>0.08810132102775015</v>
+        <v>0.08409325090928021</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.07176130239139145</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.0136088630791793</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.494576935985506</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.8586870684400765</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>1.499251927437328</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0.7970727130995954</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.886905337347912</v>
+        <v>3.866904306298693</v>
       </c>
       <c r="C11">
-        <v>1.117223763509145</v>
+        <v>1.163304973325836</v>
       </c>
       <c r="D11">
-        <v>0.1141286240545156</v>
+        <v>0.1222565972825151</v>
       </c>
       <c r="E11">
-        <v>0.3200729319707349</v>
+        <v>0.316683954214362</v>
       </c>
       <c r="F11">
-        <v>0.4063206639363059</v>
+        <v>0.3721320499250425</v>
       </c>
       <c r="G11">
-        <v>0.2610252320328215</v>
+        <v>0.2915947509885939</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.02105275265113615</v>
+        <v>0.01861494228764204</v>
       </c>
       <c r="J11">
-        <v>0.1830184318706216</v>
+        <v>0.1547785801370054</v>
       </c>
       <c r="K11">
-        <v>0.08243201600377859</v>
+        <v>0.07625857433868077</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.06786450752487827</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.01349545455152423</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.6059692789228</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.8886670002133883</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>1.609906213144072</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0.7932867088234303</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.983435201570671</v>
+        <v>3.962326694419005</v>
       </c>
       <c r="C12">
-        <v>1.142018753058039</v>
+        <v>1.188106632330118</v>
       </c>
       <c r="D12">
-        <v>0.1168553565972275</v>
+        <v>0.1261399950792281</v>
       </c>
       <c r="E12">
-        <v>0.3293073186515869</v>
+        <v>0.3258910355784934</v>
       </c>
       <c r="F12">
-        <v>0.4149185901559491</v>
+        <v>0.375334456255608</v>
       </c>
       <c r="G12">
-        <v>0.2668138188645344</v>
+        <v>0.3122520270174789</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.02212783257288997</v>
+        <v>0.01945732055113147</v>
       </c>
       <c r="J12">
-        <v>0.1842559039870935</v>
+        <v>0.1411922300269097</v>
       </c>
       <c r="K12">
-        <v>0.08083443621436004</v>
+        <v>0.0735884053013347</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.06655319866311737</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.01359201902834606</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.647764515657187</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0.9036171977995764</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>1.651285384967423</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.7925448419827035</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.962719603235087</v>
+        <v>3.941847817690075</v>
       </c>
       <c r="C13">
-        <v>1.136049399670156</v>
+        <v>1.182162741156446</v>
       </c>
       <c r="D13">
-        <v>0.1162267604937597</v>
+        <v>0.1252521203317087</v>
       </c>
       <c r="E13">
-        <v>0.3273476880981292</v>
+        <v>0.3239347021589083</v>
       </c>
       <c r="F13">
-        <v>0.4132700053754306</v>
+        <v>0.3748743440197586</v>
       </c>
       <c r="G13">
-        <v>0.2657576658912646</v>
+        <v>0.3078256462870996</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.02185940549033294</v>
+        <v>0.01923011949821696</v>
       </c>
       <c r="J13">
-        <v>0.1840881476006757</v>
+        <v>0.1441977374625552</v>
       </c>
       <c r="K13">
-        <v>0.08126562648419622</v>
+        <v>0.07423726660730701</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.06685480209469397</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.01360562710732616</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.638643963562558</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.9010081208491556</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>1.642263643668869</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.7933763659138862</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.894878215848223</v>
+        <v>3.874785360057274</v>
       </c>
       <c r="C14">
-        <v>1.118996374240453</v>
+        <v>1.165090091943455</v>
       </c>
       <c r="D14">
-        <v>0.1143353933221221</v>
+        <v>0.1225540471808273</v>
       </c>
       <c r="E14">
-        <v>0.3208448670608988</v>
+        <v>0.3174525150095135</v>
       </c>
       <c r="F14">
-        <v>0.4071141464157151</v>
+        <v>0.3724942521177681</v>
       </c>
       <c r="G14">
-        <v>0.2615822473527345</v>
+        <v>0.293299151564355</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.02112517496563981</v>
+        <v>0.01866442020714754</v>
       </c>
       <c r="J14">
-        <v>0.183162121363516</v>
+        <v>0.1537010501992242</v>
       </c>
       <c r="K14">
-        <v>0.08233753481779083</v>
+        <v>0.07607089421159152</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.06776524026994135</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.01351795618819907</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.60935700748685</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.8901559346137162</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>1.613263775306294</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.793515090317527</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.85318044203234</v>
+        <v>3.833567221064982</v>
       </c>
       <c r="C15">
-        <v>1.109793638854256</v>
+        <v>1.155796758566993</v>
       </c>
       <c r="D15">
-        <v>0.1132584897447089</v>
+        <v>0.1210114215177924</v>
       </c>
       <c r="E15">
-        <v>0.3168114846862267</v>
+        <v>0.3134381253787879</v>
       </c>
       <c r="F15">
-        <v>0.4029500842898344</v>
+        <v>0.3705481686282823</v>
       </c>
       <c r="G15">
-        <v>0.2586555306995777</v>
+        <v>0.2845284239500927</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.02075436840295009</v>
+        <v>0.0184142573203232</v>
       </c>
       <c r="J15">
-        <v>0.182403710694615</v>
+        <v>0.1592870475503858</v>
       </c>
       <c r="K15">
-        <v>0.08282625297011492</v>
+        <v>0.07704071750853991</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.06828239367222544</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.01339634840030435</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.591659575561451</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.8823256099014429</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>1.595717796683971</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.7921691695508457</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.615289668103628</v>
+        <v>3.598351366120369</v>
       </c>
       <c r="C16">
-        <v>1.049407881112131</v>
+        <v>1.093618864225874</v>
       </c>
       <c r="D16">
-        <v>0.1065830201995368</v>
+        <v>0.1120704922044808</v>
       </c>
       <c r="E16">
-        <v>0.2944981985864956</v>
+        <v>0.2912774998523275</v>
       </c>
       <c r="F16">
-        <v>0.3820269933030502</v>
+        <v>0.3603072989133906</v>
       </c>
       <c r="G16">
-        <v>0.2446283578663113</v>
+        <v>0.2441394527187057</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.01828197219619643</v>
+        <v>0.01647205360610471</v>
       </c>
       <c r="J16">
-        <v>0.1794997336002737</v>
+        <v>0.1890375413419036</v>
       </c>
       <c r="K16">
-        <v>0.08695120558441261</v>
+        <v>0.08332103628788801</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.07157540216072267</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.01307791453133511</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.489164333394356</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.8462888660130687</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>1.493828415237004</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.7872470698065825</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.469428817697008</v>
+        <v>3.454088324488964</v>
       </c>
       <c r="C17">
-        <v>1.012493211746545</v>
+        <v>1.054534381862794</v>
       </c>
       <c r="D17">
-        <v>0.1024951660183433</v>
+        <v>0.1069356164803708</v>
       </c>
       <c r="E17">
-        <v>0.2810942969370984</v>
+        <v>0.2780169708947469</v>
       </c>
       <c r="F17">
-        <v>0.3694600728105613</v>
+        <v>0.3526991472999583</v>
       </c>
       <c r="G17">
-        <v>0.2362665995851927</v>
+        <v>0.2252236357866693</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.01685280093743469</v>
+        <v>0.01533667394425464</v>
       </c>
       <c r="J17">
-        <v>0.1778586448235728</v>
+        <v>0.2029727667042209</v>
       </c>
       <c r="K17">
-        <v>0.08964086098752233</v>
+        <v>0.08700666263790602</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.07361752126296306</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.01286524036587533</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.426547732775063</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.8249894545667757</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>1.431334575570958</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.7803768515517646</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.385937842157546</v>
+        <v>3.371488023389759</v>
       </c>
       <c r="C18">
-        <v>0.988185884365123</v>
+        <v>1.028587499028163</v>
       </c>
       <c r="D18">
-        <v>0.09994125116635644</v>
+        <v>0.103898977393527</v>
       </c>
       <c r="E18">
-        <v>0.2736695746869273</v>
+        <v>0.2706859941158868</v>
       </c>
       <c r="F18">
-        <v>0.3633803647270639</v>
+        <v>0.3488574197291001</v>
       </c>
       <c r="G18">
-        <v>0.2325299637337679</v>
+        <v>0.2171984719817104</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.01585439591728655</v>
+        <v>0.01444232991185235</v>
       </c>
       <c r="J18">
-        <v>0.1774799023187299</v>
+        <v>0.209440901225932</v>
       </c>
       <c r="K18">
-        <v>0.09170650653932455</v>
+        <v>0.08945822071514797</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.07494331246306629</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.01289589921528744</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.390062161601278</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0.8161955522359108</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>1.39484505135718</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.7780419645466452</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.357377256509949</v>
+        <v>3.343234772970789</v>
       </c>
       <c r="C19">
-        <v>0.9823688017093275</v>
+        <v>1.022165362793061</v>
       </c>
       <c r="D19">
-        <v>0.0992351736906727</v>
+        <v>0.1030477499215152</v>
       </c>
       <c r="E19">
-        <v>0.2710281945851065</v>
+        <v>0.268083728076391</v>
       </c>
       <c r="F19">
-        <v>0.3605243879353708</v>
+        <v>0.3467045649946598</v>
       </c>
       <c r="G19">
-        <v>0.2305170487847121</v>
+        <v>0.214066881736386</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.0156776752337322</v>
+        <v>0.01433997686485622</v>
       </c>
       <c r="J19">
-        <v>0.1769624057879966</v>
+        <v>0.2108814737643527</v>
       </c>
       <c r="K19">
-        <v>0.09205862524607156</v>
+        <v>0.08997136131596406</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.07527476981461767</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.01278810889581727</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.378154000664367</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0.8108176707713284</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>1.382912212088868</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0.7747153059115135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.484983581971449</v>
+        <v>3.469473847680206</v>
       </c>
       <c r="C20">
-        <v>1.016172886262837</v>
+        <v>1.058483034317788</v>
       </c>
       <c r="D20">
-        <v>0.1029139396857772</v>
+        <v>0.1074535640627516</v>
       </c>
       <c r="E20">
-        <v>0.2825254756250501</v>
+        <v>0.2794306225083574</v>
       </c>
       <c r="F20">
-        <v>0.3708706922285216</v>
+        <v>0.3536364985419809</v>
       </c>
       <c r="G20">
-        <v>0.2372252716223215</v>
+        <v>0.2271083421795126</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.01698524102770449</v>
+        <v>0.01543467983425639</v>
       </c>
       <c r="J20">
-        <v>0.1780685597488443</v>
+        <v>0.2017289440043299</v>
       </c>
       <c r="K20">
-        <v>0.08938476352816416</v>
+        <v>0.08665159111136411</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.0734113585746945</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.01290029670538928</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.433160207903697</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0.8274759579246194</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>1.437943962853637</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0.7814848846223441</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.914374333288663</v>
+        <v>3.894075329078532</v>
       </c>
       <c r="C21">
-        <v>1.127506096335338</v>
+        <v>1.171833141688353</v>
       </c>
       <c r="D21">
-        <v>0.1151210436027554</v>
+        <v>0.124112069536892</v>
       </c>
       <c r="E21">
-        <v>0.3225422544674643</v>
+        <v>0.3192366808205023</v>
       </c>
       <c r="F21">
-        <v>0.407740645847646</v>
+        <v>0.3696301461293956</v>
       </c>
       <c r="G21">
-        <v>0.2617020115995246</v>
+        <v>0.3050853973830669</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.02154631171654486</v>
+        <v>0.01906815187524824</v>
       </c>
       <c r="J21">
-        <v>0.1828583131146573</v>
+        <v>0.1425922662109329</v>
       </c>
       <c r="K21">
-        <v>0.08150992911830279</v>
+        <v>0.07463497881881764</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.06722164276735798</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.01312139797073009</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.618579590432304</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0.8897918831168568</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1.622028088928843</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0.7830255156363677</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.195890069054371</v>
+        <v>4.172320570421164</v>
       </c>
       <c r="C22">
-        <v>1.196286485686528</v>
+        <v>1.241208472780386</v>
       </c>
       <c r="D22">
-        <v>0.1228335030098577</v>
+        <v>0.1350657618145732</v>
       </c>
       <c r="E22">
-        <v>0.3499711264282652</v>
+        <v>0.3465512837131257</v>
       </c>
       <c r="F22">
-        <v>0.4342686472964772</v>
+        <v>0.3810840101921897</v>
       </c>
       <c r="G22">
-        <v>0.279949936318971</v>
+        <v>0.3657529817027978</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.02456457788470789</v>
+        <v>0.02134190236921807</v>
       </c>
       <c r="J22">
-        <v>0.1872002773815495</v>
+        <v>0.1120508224571495</v>
       </c>
       <c r="K22">
-        <v>0.07755679254811376</v>
+        <v>0.06764305124405823</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.06377569294320917</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.01377829307127598</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.73991992771505</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0.9378207059317845</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.742248604824283</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0.787279434440066</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.046118997779502</v>
+        <v>4.024279891469064</v>
       </c>
       <c r="C23">
-        <v>1.155307789589159</v>
+        <v>1.201213962023303</v>
       </c>
       <c r="D23">
-        <v>0.118436890176838</v>
+        <v>0.1285266323186534</v>
       </c>
       <c r="E23">
-        <v>0.3354828726380177</v>
+        <v>0.3320523609997394</v>
       </c>
       <c r="F23">
-        <v>0.4214396433459839</v>
+        <v>0.3780347612652264</v>
       </c>
       <c r="G23">
-        <v>0.2714586538889989</v>
+        <v>0.3276899179799102</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.02269242240364999</v>
+        <v>0.01982510495096257</v>
       </c>
       <c r="J23">
-        <v>0.1855282245305858</v>
+        <v>0.132650252662458</v>
       </c>
       <c r="K23">
-        <v>0.08023055780110511</v>
+        <v>0.07214816711490002</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.06580671834433494</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.01379438342993922</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.674309498466855</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0.9161842271604144</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.677529918982003</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0.7939434213119938</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.47876208008239</v>
+        <v>3.463304610827379</v>
       </c>
       <c r="C24">
-        <v>1.007909636668302</v>
+        <v>1.050063975174425</v>
       </c>
       <c r="D24">
-        <v>0.1022903665024728</v>
+        <v>0.1067873325224298</v>
       </c>
       <c r="E24">
-        <v>0.2822727656114026</v>
+        <v>0.2791732778238938</v>
       </c>
       <c r="F24">
-        <v>0.3724659620609643</v>
+        <v>0.3553331162543927</v>
       </c>
       <c r="G24">
-        <v>0.2388847911338985</v>
+        <v>0.2282571278111334</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.01652783979320471</v>
+        <v>0.01488655433903485</v>
       </c>
       <c r="J24">
-        <v>0.1790650654980723</v>
+        <v>0.2032921551217584</v>
       </c>
       <c r="K24">
-        <v>0.0904815717164027</v>
+        <v>0.0876451261451443</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.07381310449488243</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.01321719443493841</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.42898840999014</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0.8330740127379528</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>1.433798729580573</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0.7872967206708523</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.867570278309643</v>
+        <v>2.858382652609976</v>
       </c>
       <c r="C25">
-        <v>0.8503364263471553</v>
+        <v>0.8746698943812703</v>
       </c>
       <c r="D25">
-        <v>0.08494929151154196</v>
+        <v>0.08778271811984695</v>
       </c>
       <c r="E25">
-        <v>0.2285902943495728</v>
+        <v>0.226480486295948</v>
       </c>
       <c r="F25">
-        <v>0.3232921987987254</v>
+        <v>0.3136609312102934</v>
       </c>
       <c r="G25">
-        <v>0.2070510358422979</v>
+        <v>0.1931256669828016</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.01092761410454823</v>
+        <v>0.01019104716752395</v>
       </c>
       <c r="J25">
-        <v>0.1740271892584033</v>
+        <v>0.2079390835255666</v>
       </c>
       <c r="K25">
-        <v>0.1037311354744155</v>
+        <v>0.1020501690508109</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.08246893530341115</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.0126666623905054</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.167616388139166</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>0.7544458610191498</v>
+        <v>1.170972584844421</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0.7298520841190737</v>
       </c>
     </row>
   </sheetData>
